--- a/param.xlsx
+++ b/param.xlsx
@@ -103,11 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,7 +411,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +431,7 @@
       </c>
       <c r="E1" s="1">
         <f>(1/B5)-E2</f>
-        <v>3.625377643504532E-5</v>
+        <v>7.2507552870090634E-4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -450,7 +449,7 @@
       </c>
       <c r="E2">
         <f>(1/B5)/(B20+1)</f>
-        <v>6.3746223564954685E-5</v>
+        <v>1.2749244712990937E-3</v>
       </c>
       <c r="F2">
         <v>17</v>
@@ -468,7 +467,7 @@
       </c>
       <c r="E3" s="1">
         <f>0.00004*E1</f>
-        <v>1.4501510574018128E-9</v>
+        <v>2.9003021148036258E-8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -514,9 +513,9 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>(B2-B4-B1)*(E1+0.000001)/(E4)</f>
-        <v>1.3100911379657605E-4</v>
+        <v>2.5533656092648544E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,9 +528,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <f>E4/(B5*8*B7)</f>
-        <v>3.7500000000000001E-4</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,14 +538,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1">
         <f>(B1/1.25-1)*B8</f>
-        <v>10200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
